--- a/Oct26_100pct_CW_SIM_copy.xlsx
+++ b/Oct26_100pct_CW_SIM_copy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Image-Classification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D818EB2-928B-4189-9278-750EA6146D9E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{69733CA1-37F7-405F-B824-B0CDDAB835C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10425" windowHeight="10620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10425" windowHeight="10620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mobilenetv2" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="28">
   <si>
     <t>loss</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>lr</t>
+  </si>
+  <si>
+    <t>epoch</t>
   </si>
 </sst>
 </file>
@@ -445,13 +448,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:AB82"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -9143,13 +9147,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AB101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:AB101"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -17841,13 +17846,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AB57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:AB57"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
